--- a/docs/pvz_calculations.xlsx
+++ b/docs/pvz_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projekte_JT\PVZero\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{656C5FDE-3B27-4B89-A7AB-90E3A5A9F176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B13A4B-0919-4432-B2A2-451532C080A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6510" yWindow="1725" windowWidth="28335" windowHeight="15630" xr2:uid="{D5C5EBA8-57DB-4B03-B64B-80C86E85973D}"/>
+    <workbookView xWindow="45330" yWindow="1890" windowWidth="28335" windowHeight="15630" xr2:uid="{D5C5EBA8-57DB-4B03-B64B-80C86E85973D}"/>
   </bookViews>
   <sheets>
     <sheet name="AI 0V - 60V" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
   <si>
     <t>[bit]</t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>OVS DEZ</t>
+  </si>
+  <si>
+    <t>OVS RAW</t>
   </si>
 </sst>
 </file>
@@ -180,9 +183,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -220,7 +223,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -326,7 +329,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -468,7 +471,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -478,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CBA2C6-2106-4124-9378-FBEBC546B213}">
   <dimension ref="C5:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -589,7 +592,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="H13" s="4" t="s">
         <v>20</v>

--- a/docs/pvz_calculations.xlsx
+++ b/docs/pvz_calculations.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projekte_JT\PVZero\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B13A4B-0919-4432-B2A2-451532C080A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCDA842-2EA2-4A76-B3EC-F312090D69EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45330" yWindow="1890" windowWidth="28335" windowHeight="15630" xr2:uid="{D5C5EBA8-57DB-4B03-B64B-80C86E85973D}"/>
+    <workbookView xWindow="43935" yWindow="1650" windowWidth="28335" windowHeight="15630" xr2:uid="{D5C5EBA8-57DB-4B03-B64B-80C86E85973D}"/>
   </bookViews>
   <sheets>
     <sheet name="AI 0V - 60V" sheetId="1" r:id="rId1"/>
+    <sheet name="Battery Guard" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>[bit]</t>
   </si>
@@ -107,6 +108,41 @@
   <si>
     <t>OVS RAW</t>
   </si>
+  <si>
+    <t>Laden Sie mit dem maximalen Strom des Ladegeräts/der Batterie, bis die Spannung auf die Absorptionsspannung ansteigt. Zu diesem Zeitpunkt ist die Batterie zu etwa 80-90 % geladen.
+Absorption, Spannung konstant halten, bis die Batterie voll ist. Während dieser Phase sinkt der Strom langsam, da es schwieriger wird, Strom durch die Batterie zu leiten, je weiter sie geladen wird. Wenn der Strom auf einen niedrigen Wert, den so genannten Schwanzstrom, fällt, ist die Batterie voll. An diesem Punkt geht das Ladegerät in den Erhaltungsmodus über.
+Bei der Erhaltungsladung wird eine niedrigere Spannung verwendet, um die Ladung aufrechtzuerhalten, jedoch nicht auf einem so hohen Niveau, dass die Batterie vorzeitig abgenutzt wird.
+Übersetzt mit www.DeepL.com/Translator (kostenlose Version)</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Absorbtion</t>
+  </si>
+  <si>
+    <t>Bulk, charge at charger/ battery max current until voltage rises to the absorption Voltage. At this point the battery is somewhere around 80-90% charged.
+Absorption, keep voltage constant until battery full. During this phase the current drops slowly as it gets more difficult to push current through it as it charges further. When the current drops to a low value, known as tail current the battery is full. At this point the charger goes into float mode.
+Float, use a lower voltage to maintain the charge, but not at such a high level as to wear the battery out prematurely.</t>
+  </si>
+  <si>
+    <t>Float</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>max. Strom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spannung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zeit </t>
+  </si>
 </sst>
 </file>
 
@@ -150,7 +186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -164,6 +200,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -180,6 +225,2168 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Battery Guard'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Spannung </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Battery Guard'!$B$3:$B$194</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="192"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A783-4B67-932A-F023DB259BC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1264471503"/>
+        <c:axId val="1264473903"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Battery Guard'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>max. Strom</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'Battery Guard'!$C$3:$C$194</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="192"/>
+                <c:pt idx="0">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0772413793103475</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0772413793103475</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.5226436781609252</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0000000000001563E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0000000000001563E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>6.9008045977011534</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>6.2117241379310357</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>6.2117241379310357</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.2117241379310357</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.2117241379310357</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6.2117241379310357</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.7663218390804616</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.0000000000001563E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.0000000000001563E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.0000000000001563E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.0000000000001563E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.0000000000001563E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.0000000000001563E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.0000000000001563E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.0000000000001563E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.0000000000001563E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.0000000000001563E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.0000000000001563E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.0000000000001563E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>-0.67908045977011255</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>0.69908045977011568</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A783-4B67-932A-F023DB259BC6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1533183103"/>
+        <c:axId val="1533184543"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1264471503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1264473903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1264473903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1264471503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1533184543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1533183103"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="1533183103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1533184543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12D51C33-E469-4148-BE2B-5EF3D77D1ED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,7 +2688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CBA2C6-2106-4124-9378-FBEBC546B213}">
   <dimension ref="C5:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -2204,4 +4411,2670 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF9269-9B3D-4E63-856A-A1285B61F326}">
+  <dimension ref="A2:AD194"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6">
+        <f>B3*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="6">
+        <v>41</v>
+      </c>
+      <c r="G3">
+        <v>0.01</v>
+      </c>
+      <c r="I3">
+        <f>F3*G3</f>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="S3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="7"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>2</v>
+      </c>
+      <c r="B4" s="6">
+        <v>40</v>
+      </c>
+      <c r="C4" s="6">
+        <f>B4*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="6">
+        <v>58.4</v>
+      </c>
+      <c r="G4">
+        <v>12</v>
+      </c>
+      <c r="I4">
+        <v>310</v>
+      </c>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>3</v>
+      </c>
+      <c r="B5" s="6">
+        <v>40</v>
+      </c>
+      <c r="C5" s="6">
+        <f>B5*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="7"/>
+      <c r="AB5" s="7"/>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="7"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="6">
+        <v>40</v>
+      </c>
+      <c r="C6" s="6">
+        <f>B6*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
+      <c r="AA6" s="7"/>
+      <c r="AB6" s="7"/>
+      <c r="AC6" s="7"/>
+      <c r="AD6" s="7"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>5</v>
+      </c>
+      <c r="B7" s="6">
+        <v>40</v>
+      </c>
+      <c r="C7" s="6">
+        <f>B7*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <f>(G4-G3)/(F4-F3)</f>
+        <v>0.68908045977011501</v>
+      </c>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
+      <c r="AA7" s="7"/>
+      <c r="AB7" s="7"/>
+      <c r="AC7" s="7"/>
+      <c r="AD7" s="7"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <v>6</v>
+      </c>
+      <c r="B8" s="6">
+        <v>40</v>
+      </c>
+      <c r="C8" s="6">
+        <f>B8*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+      <c r="F8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <f>G3-(F3*G7)</f>
+        <v>-28.242298850574713</v>
+      </c>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
+      <c r="AB8" s="7"/>
+      <c r="AC8" s="7"/>
+      <c r="AD8" s="7"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6">
+        <v>44</v>
+      </c>
+      <c r="C9" s="6">
+        <f>B9*$G$7+$G$8</f>
+        <v>2.0772413793103475</v>
+      </c>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="7"/>
+      <c r="AC9" s="7"/>
+      <c r="AD9" s="7"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6">
+        <v>51</v>
+      </c>
+      <c r="C10" s="6">
+        <f>B10*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+      <c r="F10">
+        <v>50.5</v>
+      </c>
+      <c r="G10">
+        <f>F10*G7+G8</f>
+        <v>6.5562643678160981</v>
+      </c>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
+      <c r="AA10" s="7"/>
+      <c r="AB10" s="7"/>
+      <c r="AC10" s="7"/>
+      <c r="AD10" s="7"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <v>9</v>
+      </c>
+      <c r="B11" s="6">
+        <v>44</v>
+      </c>
+      <c r="C11" s="6">
+        <f>B11*$G$7+$G$8</f>
+        <v>2.0772413793103475</v>
+      </c>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
+      <c r="AA11" s="7"/>
+      <c r="AB11" s="7"/>
+      <c r="AC11" s="7"/>
+      <c r="AD11" s="7"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>10</v>
+      </c>
+      <c r="B12" s="6">
+        <v>49</v>
+      </c>
+      <c r="C12" s="6">
+        <f>B12*$G$7+$G$8</f>
+        <v>5.5226436781609252</v>
+      </c>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
+      <c r="AA12" s="7"/>
+      <c r="AB12" s="7"/>
+      <c r="AC12" s="7"/>
+      <c r="AD12" s="7"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>11</v>
+      </c>
+      <c r="B13" s="6">
+        <v>41</v>
+      </c>
+      <c r="C13" s="6">
+        <f>B13*$G$7+$G$8</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>12</v>
+      </c>
+      <c r="B14" s="6">
+        <v>41</v>
+      </c>
+      <c r="C14" s="6">
+        <f>B14*$G$7+$G$8</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AB14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>13</v>
+      </c>
+      <c r="B15" s="6">
+        <v>42</v>
+      </c>
+      <c r="C15" s="6">
+        <f>B15*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>14</v>
+      </c>
+      <c r="B16" s="6">
+        <v>42</v>
+      </c>
+      <c r="C16" s="6">
+        <f>B16*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>15</v>
+      </c>
+      <c r="B17" s="6">
+        <v>42</v>
+      </c>
+      <c r="C17" s="6">
+        <f>B17*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+      <c r="S17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>16</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45</v>
+      </c>
+      <c r="C18" s="6">
+        <f>B18*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
+      <c r="AA18" s="7"/>
+      <c r="AB18" s="7"/>
+      <c r="AC18" s="7"/>
+      <c r="AD18" s="7"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>17</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45</v>
+      </c>
+      <c r="C19" s="6">
+        <f>B19*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>18</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45</v>
+      </c>
+      <c r="C20" s="6">
+        <f>B20*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
+      <c r="AA20" s="7"/>
+      <c r="AB20" s="7"/>
+      <c r="AC20" s="7"/>
+      <c r="AD20" s="7"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>19</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45</v>
+      </c>
+      <c r="C21" s="6">
+        <f>B21*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>20</v>
+      </c>
+      <c r="B22" s="6">
+        <v>45</v>
+      </c>
+      <c r="C22" s="6">
+        <f>B22*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="7"/>
+      <c r="AB22" s="7"/>
+      <c r="AC22" s="7"/>
+      <c r="AD22" s="7"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>21</v>
+      </c>
+      <c r="B23" s="6">
+        <v>45</v>
+      </c>
+      <c r="C23" s="6">
+        <f>B23*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>22</v>
+      </c>
+      <c r="B24" s="6">
+        <v>45</v>
+      </c>
+      <c r="C24" s="6">
+        <f>B24*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="7"/>
+      <c r="AB24" s="7"/>
+      <c r="AC24" s="7"/>
+      <c r="AD24" s="7"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6">
+        <v>45</v>
+      </c>
+      <c r="C25" s="6">
+        <f>B25*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>24</v>
+      </c>
+      <c r="B26" s="6">
+        <v>51</v>
+      </c>
+      <c r="C26" s="6">
+        <f>B26*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="7"/>
+      <c r="AC26" s="7"/>
+      <c r="AD26" s="7"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6">
+        <v>51</v>
+      </c>
+      <c r="C27" s="6">
+        <f>B27*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <v>26</v>
+      </c>
+      <c r="B28" s="6">
+        <v>51</v>
+      </c>
+      <c r="C28" s="6">
+        <f>B28*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <v>27</v>
+      </c>
+      <c r="B29" s="6">
+        <v>51</v>
+      </c>
+      <c r="C29" s="6">
+        <f>B29*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <v>28</v>
+      </c>
+      <c r="B30" s="6">
+        <v>51</v>
+      </c>
+      <c r="C30" s="6">
+        <f>B30*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <v>29</v>
+      </c>
+      <c r="B31" s="6">
+        <v>51</v>
+      </c>
+      <c r="C31" s="6">
+        <f>B31*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <v>30</v>
+      </c>
+      <c r="B32" s="6">
+        <v>51</v>
+      </c>
+      <c r="C32" s="6">
+        <f>B32*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6">
+        <v>51</v>
+      </c>
+      <c r="C33" s="6">
+        <f>B33*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" s="6">
+        <v>51</v>
+      </c>
+      <c r="C34" s="6">
+        <f>B34*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="6">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6">
+        <v>51</v>
+      </c>
+      <c r="C35" s="6">
+        <f>B35*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="6">
+        <v>34</v>
+      </c>
+      <c r="B36" s="6">
+        <v>51</v>
+      </c>
+      <c r="C36" s="6">
+        <f>B36*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="6">
+        <v>35</v>
+      </c>
+      <c r="B37" s="6">
+        <v>51</v>
+      </c>
+      <c r="C37" s="6">
+        <f>B37*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="6">
+        <v>36</v>
+      </c>
+      <c r="B38" s="6">
+        <v>51</v>
+      </c>
+      <c r="C38" s="6">
+        <f>B38*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="6">
+        <v>37</v>
+      </c>
+      <c r="B39" s="6">
+        <v>51</v>
+      </c>
+      <c r="C39" s="6">
+        <f>B39*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>38</v>
+      </c>
+      <c r="B40" s="6">
+        <v>51</v>
+      </c>
+      <c r="C40" s="6">
+        <f>B40*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6">
+        <v>51</v>
+      </c>
+      <c r="C41" s="6">
+        <f>B41*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6">
+        <v>51</v>
+      </c>
+      <c r="C42" s="6">
+        <f>B42*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="6">
+        <v>41</v>
+      </c>
+      <c r="B43" s="6">
+        <v>51</v>
+      </c>
+      <c r="C43" s="6">
+        <f>B43*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>42</v>
+      </c>
+      <c r="B44" s="6">
+        <v>51</v>
+      </c>
+      <c r="C44" s="6">
+        <f>B44*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>43</v>
+      </c>
+      <c r="B45" s="6">
+        <v>51</v>
+      </c>
+      <c r="C45" s="6">
+        <f>B45*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>44</v>
+      </c>
+      <c r="B46" s="6">
+        <v>51</v>
+      </c>
+      <c r="C46" s="6">
+        <f>B46*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="6">
+        <v>45</v>
+      </c>
+      <c r="B47" s="6">
+        <v>51</v>
+      </c>
+      <c r="C47" s="6">
+        <f>B47*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="6">
+        <v>46</v>
+      </c>
+      <c r="B48" s="6">
+        <v>51</v>
+      </c>
+      <c r="C48" s="6">
+        <f>B48*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>47</v>
+      </c>
+      <c r="B49" s="6">
+        <v>51</v>
+      </c>
+      <c r="C49" s="6">
+        <f>B49*$G$7+$G$8</f>
+        <v>6.9008045977011534</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="6">
+        <v>48</v>
+      </c>
+      <c r="B50" s="6">
+        <v>52</v>
+      </c>
+      <c r="C50" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>49</v>
+      </c>
+      <c r="B51" s="6">
+        <v>52</v>
+      </c>
+      <c r="C51" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>50</v>
+      </c>
+      <c r="B52" s="6">
+        <v>52</v>
+      </c>
+      <c r="C52" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>51</v>
+      </c>
+      <c r="B53" s="6">
+        <v>52</v>
+      </c>
+      <c r="C53" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>52</v>
+      </c>
+      <c r="B54" s="6">
+        <v>52</v>
+      </c>
+      <c r="C54" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>53</v>
+      </c>
+      <c r="B55" s="6">
+        <v>52</v>
+      </c>
+      <c r="C55" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>54</v>
+      </c>
+      <c r="B56" s="6">
+        <v>52</v>
+      </c>
+      <c r="C56" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="6">
+        <v>55</v>
+      </c>
+      <c r="B57" s="6">
+        <v>52</v>
+      </c>
+      <c r="C57" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="6">
+        <v>56</v>
+      </c>
+      <c r="B58" s="6">
+        <v>56</v>
+      </c>
+      <c r="C58" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>57</v>
+      </c>
+      <c r="B59" s="6">
+        <v>56</v>
+      </c>
+      <c r="C59" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>58</v>
+      </c>
+      <c r="B60" s="6">
+        <v>56</v>
+      </c>
+      <c r="C60" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>59</v>
+      </c>
+      <c r="B61" s="6">
+        <v>56</v>
+      </c>
+      <c r="C61" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="6">
+        <v>60</v>
+      </c>
+      <c r="B62" s="6">
+        <v>56</v>
+      </c>
+      <c r="C62" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>61</v>
+      </c>
+      <c r="B63" s="6">
+        <v>56</v>
+      </c>
+      <c r="C63" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>62</v>
+      </c>
+      <c r="B64" s="6">
+        <v>56</v>
+      </c>
+      <c r="C64" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="6">
+        <v>63</v>
+      </c>
+      <c r="B65" s="6">
+        <v>56</v>
+      </c>
+      <c r="C65" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>64</v>
+      </c>
+      <c r="B66" s="6">
+        <v>56</v>
+      </c>
+      <c r="C66" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>65</v>
+      </c>
+      <c r="B67" s="6">
+        <v>56</v>
+      </c>
+      <c r="C67" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="6">
+        <v>66</v>
+      </c>
+      <c r="B68" s="6">
+        <v>56</v>
+      </c>
+      <c r="C68" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="6">
+        <v>67</v>
+      </c>
+      <c r="B69" s="6">
+        <v>56</v>
+      </c>
+      <c r="C69" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>68</v>
+      </c>
+      <c r="B70" s="6">
+        <v>56</v>
+      </c>
+      <c r="C70" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>69</v>
+      </c>
+      <c r="B71" s="6">
+        <v>56</v>
+      </c>
+      <c r="C71" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>70</v>
+      </c>
+      <c r="B72" s="6">
+        <v>56</v>
+      </c>
+      <c r="C72" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>71</v>
+      </c>
+      <c r="B73" s="6">
+        <v>56</v>
+      </c>
+      <c r="C73" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>72</v>
+      </c>
+      <c r="B74" s="6">
+        <v>56</v>
+      </c>
+      <c r="C74" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="6">
+        <v>73</v>
+      </c>
+      <c r="B75" s="6">
+        <v>56</v>
+      </c>
+      <c r="C75" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="6">
+        <v>74</v>
+      </c>
+      <c r="B76" s="6">
+        <v>56</v>
+      </c>
+      <c r="C76" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>75</v>
+      </c>
+      <c r="B77" s="6">
+        <v>56</v>
+      </c>
+      <c r="C77" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>76</v>
+      </c>
+      <c r="B78" s="6">
+        <v>56</v>
+      </c>
+      <c r="C78" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="6">
+        <v>77</v>
+      </c>
+      <c r="B79" s="6">
+        <v>50</v>
+      </c>
+      <c r="C79" s="6">
+        <f>B79*$G$7+$G$8</f>
+        <v>6.2117241379310357</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="6">
+        <v>78</v>
+      </c>
+      <c r="B80" s="6">
+        <v>50</v>
+      </c>
+      <c r="C80" s="6">
+        <f>B80*$G$7+$G$8</f>
+        <v>6.2117241379310357</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="6">
+        <v>79</v>
+      </c>
+      <c r="B81" s="6">
+        <v>50</v>
+      </c>
+      <c r="C81" s="6">
+        <f>B81*$G$7+$G$8</f>
+        <v>6.2117241379310357</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="6">
+        <v>80</v>
+      </c>
+      <c r="B82" s="6">
+        <v>50</v>
+      </c>
+      <c r="C82" s="6">
+        <f>B82*$G$7+$G$8</f>
+        <v>6.2117241379310357</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="6">
+        <v>81</v>
+      </c>
+      <c r="B83" s="6">
+        <v>50</v>
+      </c>
+      <c r="C83" s="6">
+        <f>B83*$G$7+$G$8</f>
+        <v>6.2117241379310357</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="6">
+        <v>82</v>
+      </c>
+      <c r="B84" s="6">
+        <v>45</v>
+      </c>
+      <c r="C84" s="6">
+        <f>B84*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="6">
+        <v>83</v>
+      </c>
+      <c r="B85" s="6">
+        <v>45</v>
+      </c>
+      <c r="C85" s="6">
+        <f>B85*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="6">
+        <v>84</v>
+      </c>
+      <c r="B86" s="6">
+        <v>45</v>
+      </c>
+      <c r="C86" s="6">
+        <f>B86*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="6">
+        <v>85</v>
+      </c>
+      <c r="B87" s="6">
+        <v>45</v>
+      </c>
+      <c r="C87" s="6">
+        <f>B87*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>86</v>
+      </c>
+      <c r="B88" s="6">
+        <v>45</v>
+      </c>
+      <c r="C88" s="6">
+        <f>B88*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
+        <v>87</v>
+      </c>
+      <c r="B89" s="6">
+        <v>45</v>
+      </c>
+      <c r="C89" s="6">
+        <f>B89*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
+        <v>88</v>
+      </c>
+      <c r="B90" s="6">
+        <v>45</v>
+      </c>
+      <c r="C90" s="6">
+        <f>B90*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
+        <v>89</v>
+      </c>
+      <c r="B91" s="6">
+        <v>45</v>
+      </c>
+      <c r="C91" s="6">
+        <f>B91*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
+        <v>90</v>
+      </c>
+      <c r="B92" s="6">
+        <v>45</v>
+      </c>
+      <c r="C92" s="6">
+        <f>B92*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="6">
+        <v>91</v>
+      </c>
+      <c r="B93" s="6">
+        <v>45</v>
+      </c>
+      <c r="C93" s="6">
+        <f>B93*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
+        <v>92</v>
+      </c>
+      <c r="B94" s="6">
+        <v>45</v>
+      </c>
+      <c r="C94" s="6">
+        <f>B94*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="6">
+        <v>93</v>
+      </c>
+      <c r="B95" s="6">
+        <v>45</v>
+      </c>
+      <c r="C95" s="6">
+        <f>B95*$G$7+$G$8</f>
+        <v>2.7663218390804616</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="6">
+        <v>94</v>
+      </c>
+      <c r="B96" s="6">
+        <v>41</v>
+      </c>
+      <c r="C96" s="6">
+        <f>B96*$G$7+$G$8</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="6">
+        <v>95</v>
+      </c>
+      <c r="B97" s="6">
+        <v>41</v>
+      </c>
+      <c r="C97" s="6">
+        <f>B97*$G$7+$G$8</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="6">
+        <v>96</v>
+      </c>
+      <c r="B98" s="6">
+        <v>41</v>
+      </c>
+      <c r="C98" s="6">
+        <f>B98*$G$7+$G$8</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="6">
+        <v>97</v>
+      </c>
+      <c r="B99" s="6">
+        <v>41</v>
+      </c>
+      <c r="C99" s="6">
+        <f>B99*$G$7+$G$8</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="6">
+        <v>98</v>
+      </c>
+      <c r="B100" s="6">
+        <v>41</v>
+      </c>
+      <c r="C100" s="6">
+        <f>B100*$G$7+$G$8</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>99</v>
+      </c>
+      <c r="B101" s="6">
+        <v>41</v>
+      </c>
+      <c r="C101" s="6">
+        <f>B101*$G$7+$G$8</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="6">
+        <v>100</v>
+      </c>
+      <c r="B102" s="6">
+        <v>41</v>
+      </c>
+      <c r="C102" s="6">
+        <f>B102*$G$7+$G$8</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="6">
+        <v>101</v>
+      </c>
+      <c r="B103" s="6">
+        <v>41</v>
+      </c>
+      <c r="C103" s="6">
+        <f>B103*$G$7+$G$8</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="6">
+        <v>102</v>
+      </c>
+      <c r="B104" s="6">
+        <v>41</v>
+      </c>
+      <c r="C104" s="6">
+        <f>B104*$G$7+$G$8</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>103</v>
+      </c>
+      <c r="B105" s="6">
+        <v>41</v>
+      </c>
+      <c r="C105" s="6">
+        <f>B105*$G$7+$G$8</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="6">
+        <v>104</v>
+      </c>
+      <c r="B106" s="6">
+        <v>41</v>
+      </c>
+      <c r="C106" s="6">
+        <f>B106*$G$7+$G$8</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="6">
+        <v>105</v>
+      </c>
+      <c r="B107" s="6">
+        <v>41</v>
+      </c>
+      <c r="C107" s="6">
+        <f>B107*$G$7+$G$8</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="6">
+        <v>106</v>
+      </c>
+      <c r="B108" s="6">
+        <v>40</v>
+      </c>
+      <c r="C108" s="6">
+        <f>B108*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="6">
+        <v>107</v>
+      </c>
+      <c r="B109" s="6">
+        <v>40</v>
+      </c>
+      <c r="C109" s="6">
+        <f>B109*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="6">
+        <v>108</v>
+      </c>
+      <c r="B110" s="6">
+        <v>40</v>
+      </c>
+      <c r="C110" s="6">
+        <f>B110*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="6">
+        <v>109</v>
+      </c>
+      <c r="B111" s="6">
+        <v>40</v>
+      </c>
+      <c r="C111" s="6">
+        <f>B111*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>110</v>
+      </c>
+      <c r="B112" s="6">
+        <v>40</v>
+      </c>
+      <c r="C112" s="6">
+        <f>B112*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="6">
+        <v>111</v>
+      </c>
+      <c r="B113" s="6">
+        <v>40</v>
+      </c>
+      <c r="C113" s="6">
+        <f>B113*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>112</v>
+      </c>
+      <c r="B114" s="6">
+        <v>40</v>
+      </c>
+      <c r="C114" s="6">
+        <f>B114*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="6">
+        <v>113</v>
+      </c>
+      <c r="B115" s="6">
+        <v>40</v>
+      </c>
+      <c r="C115" s="6">
+        <f>B115*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="6">
+        <v>114</v>
+      </c>
+      <c r="B116" s="6">
+        <v>40</v>
+      </c>
+      <c r="C116" s="6">
+        <f>B116*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="6">
+        <v>115</v>
+      </c>
+      <c r="B117" s="6">
+        <v>40</v>
+      </c>
+      <c r="C117" s="6">
+        <f>B117*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="6">
+        <v>116</v>
+      </c>
+      <c r="B118" s="6">
+        <v>40</v>
+      </c>
+      <c r="C118" s="6">
+        <f>B118*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="6">
+        <v>117</v>
+      </c>
+      <c r="B119" s="6">
+        <v>39</v>
+      </c>
+      <c r="C119" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="6">
+        <v>118</v>
+      </c>
+      <c r="B120" s="6">
+        <v>39</v>
+      </c>
+      <c r="C120" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="6">
+        <v>119</v>
+      </c>
+      <c r="B121" s="6">
+        <v>39</v>
+      </c>
+      <c r="C121" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>120</v>
+      </c>
+      <c r="B122" s="6">
+        <v>39</v>
+      </c>
+      <c r="C122" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="6">
+        <v>121</v>
+      </c>
+      <c r="B123" s="6">
+        <v>39</v>
+      </c>
+      <c r="C123" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="6">
+        <v>122</v>
+      </c>
+      <c r="B124" s="6">
+        <v>39</v>
+      </c>
+      <c r="C124" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="6">
+        <v>123</v>
+      </c>
+      <c r="B125" s="6">
+        <v>39</v>
+      </c>
+      <c r="C125" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="6">
+        <v>124</v>
+      </c>
+      <c r="B126" s="6">
+        <v>39</v>
+      </c>
+      <c r="C126" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="6">
+        <v>125</v>
+      </c>
+      <c r="B127" s="6">
+        <v>39</v>
+      </c>
+      <c r="C127" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="6">
+        <v>126</v>
+      </c>
+      <c r="B128" s="6">
+        <v>39</v>
+      </c>
+      <c r="C128" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="6">
+        <v>127</v>
+      </c>
+      <c r="B129" s="6">
+        <v>39</v>
+      </c>
+      <c r="C129" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="6">
+        <v>128</v>
+      </c>
+      <c r="B130" s="6">
+        <v>39</v>
+      </c>
+      <c r="C130" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="6">
+        <v>129</v>
+      </c>
+      <c r="B131" s="6">
+        <v>39</v>
+      </c>
+      <c r="C131" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="6">
+        <v>130</v>
+      </c>
+      <c r="B132" s="6">
+        <v>39</v>
+      </c>
+      <c r="C132" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="6">
+        <v>131</v>
+      </c>
+      <c r="B133" s="6">
+        <v>35</v>
+      </c>
+      <c r="C133" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="6">
+        <v>132</v>
+      </c>
+      <c r="B134" s="6">
+        <v>35</v>
+      </c>
+      <c r="C134" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="6">
+        <v>133</v>
+      </c>
+      <c r="B135" s="6">
+        <v>35</v>
+      </c>
+      <c r="C135" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <v>134</v>
+      </c>
+      <c r="B136" s="6">
+        <v>35</v>
+      </c>
+      <c r="C136" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="6">
+        <v>135</v>
+      </c>
+      <c r="B137" s="6">
+        <v>35</v>
+      </c>
+      <c r="C137" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="6">
+        <v>136</v>
+      </c>
+      <c r="B138" s="6">
+        <v>35</v>
+      </c>
+      <c r="C138" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="6">
+        <v>137</v>
+      </c>
+      <c r="B139" s="6">
+        <v>35</v>
+      </c>
+      <c r="C139" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>138</v>
+      </c>
+      <c r="B140" s="6">
+        <v>35</v>
+      </c>
+      <c r="C140" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="6">
+        <v>139</v>
+      </c>
+      <c r="B141" s="6">
+        <v>35</v>
+      </c>
+      <c r="C141" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="6">
+        <v>140</v>
+      </c>
+      <c r="B142" s="6">
+        <v>30</v>
+      </c>
+      <c r="C142" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="6">
+        <v>141</v>
+      </c>
+      <c r="B143" s="6">
+        <v>30</v>
+      </c>
+      <c r="C143" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>142</v>
+      </c>
+      <c r="B144" s="6">
+        <v>30</v>
+      </c>
+      <c r="C144" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="6">
+        <v>143</v>
+      </c>
+      <c r="B145" s="6">
+        <v>30</v>
+      </c>
+      <c r="C145" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="6">
+        <v>144</v>
+      </c>
+      <c r="B146" s="6">
+        <v>30</v>
+      </c>
+      <c r="C146" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="6">
+        <v>145</v>
+      </c>
+      <c r="B147" s="6">
+        <v>30</v>
+      </c>
+      <c r="C147" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="6">
+        <v>146</v>
+      </c>
+      <c r="B148" s="6">
+        <v>30</v>
+      </c>
+      <c r="C148" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="6">
+        <v>147</v>
+      </c>
+      <c r="B149" s="6">
+        <v>30</v>
+      </c>
+      <c r="C149" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="6">
+        <v>148</v>
+      </c>
+      <c r="B150" s="6">
+        <v>30</v>
+      </c>
+      <c r="C150" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="6">
+        <v>149</v>
+      </c>
+      <c r="B151" s="6">
+        <v>21</v>
+      </c>
+      <c r="C151" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <v>150</v>
+      </c>
+      <c r="B152" s="6">
+        <v>21</v>
+      </c>
+      <c r="C152" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="6">
+        <v>151</v>
+      </c>
+      <c r="B153" s="6">
+        <v>21</v>
+      </c>
+      <c r="C153" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="6">
+        <v>152</v>
+      </c>
+      <c r="B154" s="6">
+        <v>21</v>
+      </c>
+      <c r="C154" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="6">
+        <v>153</v>
+      </c>
+      <c r="B155" s="6">
+        <v>21</v>
+      </c>
+      <c r="C155" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="6">
+        <v>154</v>
+      </c>
+      <c r="B156" s="6">
+        <v>21</v>
+      </c>
+      <c r="C156" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="6">
+        <v>155</v>
+      </c>
+      <c r="B157" s="6">
+        <v>21</v>
+      </c>
+      <c r="C157" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="6">
+        <v>156</v>
+      </c>
+      <c r="B158" s="6">
+        <v>21</v>
+      </c>
+      <c r="C158" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="6">
+        <v>157</v>
+      </c>
+      <c r="B159" s="6">
+        <v>21</v>
+      </c>
+      <c r="C159" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="6">
+        <v>158</v>
+      </c>
+      <c r="B160" s="6">
+        <v>21</v>
+      </c>
+      <c r="C160" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="6">
+        <v>159</v>
+      </c>
+      <c r="B161" s="6">
+        <v>21</v>
+      </c>
+      <c r="C161" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="6">
+        <v>160</v>
+      </c>
+      <c r="B162" s="6">
+        <v>21</v>
+      </c>
+      <c r="C162" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="6">
+        <v>161</v>
+      </c>
+      <c r="B163" s="6">
+        <v>40</v>
+      </c>
+      <c r="C163" s="6">
+        <f>B163*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="6">
+        <v>162</v>
+      </c>
+      <c r="B164" s="6">
+        <v>40</v>
+      </c>
+      <c r="C164" s="6">
+        <f>B164*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="6">
+        <v>163</v>
+      </c>
+      <c r="B165" s="6">
+        <v>40</v>
+      </c>
+      <c r="C165" s="6">
+        <f>B165*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="6">
+        <v>164</v>
+      </c>
+      <c r="B166" s="6">
+        <v>40</v>
+      </c>
+      <c r="C166" s="6">
+        <f>B166*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="6">
+        <v>165</v>
+      </c>
+      <c r="B167" s="6">
+        <v>40</v>
+      </c>
+      <c r="C167" s="6">
+        <f>B167*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="6">
+        <v>166</v>
+      </c>
+      <c r="B168" s="6">
+        <v>40</v>
+      </c>
+      <c r="C168" s="6">
+        <f>B168*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="6">
+        <v>167</v>
+      </c>
+      <c r="B169" s="6">
+        <v>40</v>
+      </c>
+      <c r="C169" s="6">
+        <f>B169*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="6">
+        <v>168</v>
+      </c>
+      <c r="B170" s="6">
+        <v>40</v>
+      </c>
+      <c r="C170" s="6">
+        <f>B170*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="6">
+        <v>169</v>
+      </c>
+      <c r="B171" s="6">
+        <v>40</v>
+      </c>
+      <c r="C171" s="6">
+        <f>B171*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="6">
+        <v>170</v>
+      </c>
+      <c r="B172" s="6">
+        <v>40</v>
+      </c>
+      <c r="C172" s="6">
+        <f>B172*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="6">
+        <v>171</v>
+      </c>
+      <c r="B173" s="6">
+        <v>40</v>
+      </c>
+      <c r="C173" s="6">
+        <f>B173*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="6">
+        <v>172</v>
+      </c>
+      <c r="B174" s="6">
+        <v>40</v>
+      </c>
+      <c r="C174" s="6">
+        <f>B174*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="6">
+        <v>173</v>
+      </c>
+      <c r="B175" s="6">
+        <v>40</v>
+      </c>
+      <c r="C175" s="6">
+        <f>B175*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="6">
+        <v>174</v>
+      </c>
+      <c r="B176" s="6">
+        <v>40</v>
+      </c>
+      <c r="C176" s="6">
+        <f>B176*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="6">
+        <v>175</v>
+      </c>
+      <c r="B177" s="6">
+        <v>40</v>
+      </c>
+      <c r="C177" s="6">
+        <f>B177*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="6">
+        <v>176</v>
+      </c>
+      <c r="B178" s="6">
+        <v>40</v>
+      </c>
+      <c r="C178" s="6">
+        <f>B178*$G$7+$G$8</f>
+        <v>-0.67908045977011255</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="6">
+        <v>177</v>
+      </c>
+      <c r="B179" s="6">
+        <v>42</v>
+      </c>
+      <c r="C179" s="6">
+        <f>B179*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="6">
+        <v>178</v>
+      </c>
+      <c r="B180" s="6">
+        <v>42</v>
+      </c>
+      <c r="C180" s="6">
+        <f>B180*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="6">
+        <v>179</v>
+      </c>
+      <c r="B181" s="6">
+        <v>42</v>
+      </c>
+      <c r="C181" s="6">
+        <f>B181*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="6">
+        <v>180</v>
+      </c>
+      <c r="B182" s="6">
+        <v>42</v>
+      </c>
+      <c r="C182" s="6">
+        <f>B182*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="6">
+        <v>181</v>
+      </c>
+      <c r="B183" s="6">
+        <v>42</v>
+      </c>
+      <c r="C183" s="6">
+        <f>B183*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="6">
+        <v>182</v>
+      </c>
+      <c r="B184" s="6">
+        <v>42</v>
+      </c>
+      <c r="C184" s="6">
+        <f>B184*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="6">
+        <v>183</v>
+      </c>
+      <c r="B185" s="6">
+        <v>42</v>
+      </c>
+      <c r="C185" s="6">
+        <f>B185*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="6">
+        <v>184</v>
+      </c>
+      <c r="B186" s="6">
+        <v>42</v>
+      </c>
+      <c r="C186" s="6">
+        <f>B186*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="6">
+        <v>185</v>
+      </c>
+      <c r="B187" s="6">
+        <v>42</v>
+      </c>
+      <c r="C187" s="6">
+        <f>B187*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="6">
+        <v>186</v>
+      </c>
+      <c r="B188" s="6">
+        <v>42</v>
+      </c>
+      <c r="C188" s="6">
+        <f>B188*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="6">
+        <v>187</v>
+      </c>
+      <c r="B189" s="6">
+        <v>42</v>
+      </c>
+      <c r="C189" s="6">
+        <f>B189*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="6">
+        <v>188</v>
+      </c>
+      <c r="B190" s="6">
+        <v>42</v>
+      </c>
+      <c r="C190" s="6">
+        <f>B190*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="6">
+        <v>189</v>
+      </c>
+      <c r="B191" s="6">
+        <v>42</v>
+      </c>
+      <c r="C191" s="6">
+        <f>B191*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="6">
+        <v>190</v>
+      </c>
+      <c r="B192" s="6">
+        <v>42</v>
+      </c>
+      <c r="C192" s="6">
+        <f>B192*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="6">
+        <v>191</v>
+      </c>
+      <c r="B193" s="6">
+        <v>42</v>
+      </c>
+      <c r="C193" s="6">
+        <f>B193*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="6">
+        <v>192</v>
+      </c>
+      <c r="B194" s="6">
+        <v>42</v>
+      </c>
+      <c r="C194" s="6">
+        <f>B194*$G$7+$G$8</f>
+        <v>0.69908045977011568</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="S3:AD15"/>
+    <mergeCell ref="S17:AD32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/pvz_calculations.xlsx
+++ b/docs/pvz_calculations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Projekte_JT\PVZero\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CCDA842-2EA2-4A76-B3EC-F312090D69EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C61C0A-E83D-4CFC-96B0-A0290BD8861F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43935" yWindow="1650" windowWidth="28335" windowHeight="15630" xr2:uid="{D5C5EBA8-57DB-4B03-B64B-80C86E85973D}"/>
+    <workbookView xWindow="43935" yWindow="1650" windowWidth="28335" windowHeight="15630" activeTab="1" xr2:uid="{D5C5EBA8-57DB-4B03-B64B-80C86E85973D}"/>
   </bookViews>
   <sheets>
     <sheet name="AI 0V - 60V" sheetId="1" r:id="rId1"/>
@@ -205,10 +205,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2688,7 +2688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17CBA2C6-2106-4124-9378-FBEBC546B213}">
   <dimension ref="C5:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
@@ -4417,8 +4417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8DF9269-9B3D-4E63-856A-A1285B61F326}">
   <dimension ref="A2:AD194"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4448,7 +4448,7 @@
         <v>40</v>
       </c>
       <c r="C3" s="6">
-        <f>B3*$G$7+$G$8</f>
+        <f t="shared" ref="C3:C49" si="0">B3*$G$7+$G$8</f>
         <v>-0.67908045977011255</v>
       </c>
       <c r="E3" t="s">
@@ -4464,20 +4464,20 @@
         <f>F3*G3</f>
         <v>0.41000000000000003</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-      <c r="AA3" s="7"/>
-      <c r="AB3" s="7"/>
-      <c r="AC3" s="7"/>
-      <c r="AD3" s="7"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="8"/>
+      <c r="AA3" s="8"/>
+      <c r="AB3" s="8"/>
+      <c r="AC3" s="8"/>
+      <c r="AD3" s="8"/>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -4487,7 +4487,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="6">
-        <f>B4*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>-0.67908045977011255</v>
       </c>
       <c r="E4" t="s">
@@ -4502,18 +4502,18 @@
       <c r="I4">
         <v>310</v>
       </c>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-      <c r="AA4" s="7"/>
-      <c r="AB4" s="7"/>
-      <c r="AC4" s="7"/>
-      <c r="AD4" s="7"/>
+      <c r="S4" s="8"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="8"/>
+      <c r="W4" s="8"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="8"/>
+      <c r="AA4" s="8"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="8"/>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
@@ -4523,21 +4523,21 @@
         <v>40</v>
       </c>
       <c r="C5" s="6">
-        <f>B5*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>-0.67908045977011255</v>
       </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
-      <c r="AA5" s="7"/>
-      <c r="AB5" s="7"/>
-      <c r="AC5" s="7"/>
-      <c r="AD5" s="7"/>
+      <c r="S5" s="8"/>
+      <c r="T5" s="8"/>
+      <c r="U5" s="8"/>
+      <c r="V5" s="8"/>
+      <c r="W5" s="8"/>
+      <c r="X5" s="8"/>
+      <c r="Y5" s="8"/>
+      <c r="Z5" s="8"/>
+      <c r="AA5" s="8"/>
+      <c r="AB5" s="8"/>
+      <c r="AC5" s="8"/>
+      <c r="AD5" s="8"/>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
@@ -4547,21 +4547,21 @@
         <v>40</v>
       </c>
       <c r="C6" s="6">
-        <f>B6*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>-0.67908045977011255</v>
       </c>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
-      <c r="AA6" s="7"/>
-      <c r="AB6" s="7"/>
-      <c r="AC6" s="7"/>
-      <c r="AD6" s="7"/>
+      <c r="S6" s="8"/>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Y6" s="8"/>
+      <c r="Z6" s="8"/>
+      <c r="AA6" s="8"/>
+      <c r="AB6" s="8"/>
+      <c r="AC6" s="8"/>
+      <c r="AD6" s="8"/>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
@@ -4571,7 +4571,7 @@
         <v>40</v>
       </c>
       <c r="C7" s="6">
-        <f>B7*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>-0.67908045977011255</v>
       </c>
       <c r="F7" t="s">
@@ -4581,18 +4581,18 @@
         <f>(G4-G3)/(F4-F3)</f>
         <v>0.68908045977011501</v>
       </c>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
-      <c r="AA7" s="7"/>
-      <c r="AB7" s="7"/>
-      <c r="AC7" s="7"/>
-      <c r="AD7" s="7"/>
+      <c r="S7" s="8"/>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Y7" s="8"/>
+      <c r="Z7" s="8"/>
+      <c r="AA7" s="8"/>
+      <c r="AB7" s="8"/>
+      <c r="AC7" s="8"/>
+      <c r="AD7" s="8"/>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
@@ -4602,7 +4602,7 @@
         <v>40</v>
       </c>
       <c r="C8" s="6">
-        <f>B8*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>-0.67908045977011255</v>
       </c>
       <c r="F8" t="s">
@@ -4612,18 +4612,18 @@
         <f>G3-(F3*G7)</f>
         <v>-28.242298850574713</v>
       </c>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
-      <c r="AB8" s="7"/>
-      <c r="AC8" s="7"/>
-      <c r="AD8" s="7"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
+      <c r="AB8" s="8"/>
+      <c r="AC8" s="8"/>
+      <c r="AD8" s="8"/>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
@@ -4633,21 +4633,21 @@
         <v>44</v>
       </c>
       <c r="C9" s="6">
-        <f>B9*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>2.0772413793103475</v>
       </c>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
-      <c r="AA9" s="7"/>
-      <c r="AB9" s="7"/>
-      <c r="AC9" s="7"/>
-      <c r="AD9" s="7"/>
+      <c r="S9" s="8"/>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Y9" s="8"/>
+      <c r="Z9" s="8"/>
+      <c r="AA9" s="8"/>
+      <c r="AB9" s="8"/>
+      <c r="AC9" s="8"/>
+      <c r="AD9" s="8"/>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
@@ -4657,28 +4657,28 @@
         <v>51</v>
       </c>
       <c r="C10" s="6">
-        <f>B10*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
       <c r="F10">
-        <v>50.5</v>
+        <v>58</v>
       </c>
       <c r="G10">
         <f>F10*G7+G8</f>
-        <v>6.5562643678160981</v>
-      </c>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
-      <c r="AA10" s="7"/>
-      <c r="AB10" s="7"/>
-      <c r="AC10" s="7"/>
-      <c r="AD10" s="7"/>
+        <v>11.724367816091956</v>
+      </c>
+      <c r="S10" s="8"/>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="8"/>
+      <c r="AA10" s="8"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="8"/>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
@@ -4688,21 +4688,21 @@
         <v>44</v>
       </c>
       <c r="C11" s="6">
-        <f>B11*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>2.0772413793103475</v>
       </c>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
-      <c r="AA11" s="7"/>
-      <c r="AB11" s="7"/>
-      <c r="AC11" s="7"/>
-      <c r="AD11" s="7"/>
+      <c r="S11" s="8"/>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8"/>
+      <c r="X11" s="8"/>
+      <c r="Y11" s="8"/>
+      <c r="Z11" s="8"/>
+      <c r="AA11" s="8"/>
+      <c r="AB11" s="8"/>
+      <c r="AC11" s="8"/>
+      <c r="AD11" s="8"/>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
@@ -4712,21 +4712,21 @@
         <v>49</v>
       </c>
       <c r="C12" s="6">
-        <f>B12*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>5.5226436781609252</v>
       </c>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
-      <c r="AA12" s="7"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7"/>
+      <c r="S12" s="8"/>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8"/>
+      <c r="X12" s="8"/>
+      <c r="Y12" s="8"/>
+      <c r="Z12" s="8"/>
+      <c r="AA12" s="8"/>
+      <c r="AB12" s="8"/>
+      <c r="AC12" s="8"/>
+      <c r="AD12" s="8"/>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
@@ -4736,21 +4736,21 @@
         <v>41</v>
       </c>
       <c r="C13" s="6">
-        <f>B13*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000001563E-2</v>
       </c>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
+      <c r="S13" s="8"/>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8"/>
+      <c r="X13" s="8"/>
+      <c r="Y13" s="8"/>
+      <c r="Z13" s="8"/>
+      <c r="AA13" s="8"/>
+      <c r="AB13" s="8"/>
+      <c r="AC13" s="8"/>
+      <c r="AD13" s="8"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
@@ -4760,21 +4760,21 @@
         <v>41</v>
       </c>
       <c r="C14" s="6">
-        <f>B14*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>1.0000000000001563E-2</v>
       </c>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AB14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
+      <c r="S14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8"/>
+      <c r="X14" s="8"/>
+      <c r="Y14" s="8"/>
+      <c r="Z14" s="8"/>
+      <c r="AA14" s="8"/>
+      <c r="AB14" s="8"/>
+      <c r="AC14" s="8"/>
+      <c r="AD14" s="8"/>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -4784,21 +4784,21 @@
         <v>42</v>
       </c>
       <c r="C15" s="6">
-        <f>B15*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>0.69908045977011568</v>
       </c>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
-      <c r="AA15" s="7"/>
-      <c r="AB15" s="7"/>
-      <c r="AC15" s="7"/>
-      <c r="AD15" s="7"/>
+      <c r="S15" s="8"/>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8"/>
+      <c r="X15" s="8"/>
+      <c r="Y15" s="8"/>
+      <c r="Z15" s="8"/>
+      <c r="AA15" s="8"/>
+      <c r="AB15" s="8"/>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8"/>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
@@ -4808,7 +4808,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="6">
-        <f>B16*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>0.69908045977011568</v>
       </c>
     </row>
@@ -4820,23 +4820,23 @@
         <v>42</v>
       </c>
       <c r="C17" s="6">
-        <f>B17*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>0.69908045977011568</v>
       </c>
-      <c r="S17" s="8" t="s">
+      <c r="S17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
-      <c r="AA17" s="7"/>
-      <c r="AB17" s="7"/>
-      <c r="AC17" s="7"/>
-      <c r="AD17" s="7"/>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Y17" s="8"/>
+      <c r="Z17" s="8"/>
+      <c r="AA17" s="8"/>
+      <c r="AB17" s="8"/>
+      <c r="AC17" s="8"/>
+      <c r="AD17" s="8"/>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
@@ -4846,21 +4846,21 @@
         <v>45</v>
       </c>
       <c r="C18" s="6">
-        <f>B18*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>2.7663218390804616</v>
       </c>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
-      <c r="AA18" s="7"/>
-      <c r="AB18" s="7"/>
-      <c r="AC18" s="7"/>
-      <c r="AD18" s="7"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="8"/>
+      <c r="Z18" s="8"/>
+      <c r="AA18" s="8"/>
+      <c r="AB18" s="8"/>
+      <c r="AC18" s="8"/>
+      <c r="AD18" s="8"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
@@ -4870,21 +4870,21 @@
         <v>45</v>
       </c>
       <c r="C19" s="6">
-        <f>B19*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>2.7663218390804616</v>
       </c>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
-      <c r="AB19" s="7"/>
-      <c r="AC19" s="7"/>
-      <c r="AD19" s="7"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
+      <c r="AB19" s="8"/>
+      <c r="AC19" s="8"/>
+      <c r="AD19" s="8"/>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
@@ -4894,21 +4894,21 @@
         <v>45</v>
       </c>
       <c r="C20" s="6">
-        <f>B20*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>2.7663218390804616</v>
       </c>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
-      <c r="AA20" s="7"/>
-      <c r="AB20" s="7"/>
-      <c r="AC20" s="7"/>
-      <c r="AD20" s="7"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="U20" s="8"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="8"/>
+      <c r="X20" s="8"/>
+      <c r="Y20" s="8"/>
+      <c r="Z20" s="8"/>
+      <c r="AA20" s="8"/>
+      <c r="AB20" s="8"/>
+      <c r="AC20" s="8"/>
+      <c r="AD20" s="8"/>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
@@ -4918,21 +4918,21 @@
         <v>45</v>
       </c>
       <c r="C21" s="6">
-        <f>B21*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>2.7663218390804616</v>
       </c>
-      <c r="S21" s="7"/>
-      <c r="T21" s="7"/>
-      <c r="U21" s="7"/>
-      <c r="V21" s="7"/>
-      <c r="W21" s="7"/>
-      <c r="X21" s="7"/>
-      <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
-      <c r="AD21" s="7"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="U21" s="8"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="8"/>
+      <c r="X21" s="8"/>
+      <c r="Y21" s="8"/>
+      <c r="Z21" s="8"/>
+      <c r="AA21" s="8"/>
+      <c r="AB21" s="8"/>
+      <c r="AC21" s="8"/>
+      <c r="AD21" s="8"/>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
@@ -4942,21 +4942,21 @@
         <v>45</v>
       </c>
       <c r="C22" s="6">
-        <f>B22*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>2.7663218390804616</v>
       </c>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7"/>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7"/>
-      <c r="Z22" s="7"/>
-      <c r="AA22" s="7"/>
-      <c r="AB22" s="7"/>
-      <c r="AC22" s="7"/>
-      <c r="AD22" s="7"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="8"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="8"/>
+      <c r="AA22" s="8"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="8"/>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
@@ -4966,21 +4966,21 @@
         <v>45</v>
       </c>
       <c r="C23" s="6">
-        <f>B23*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>2.7663218390804616</v>
       </c>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="U23" s="8"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="8"/>
+      <c r="X23" s="8"/>
+      <c r="Y23" s="8"/>
+      <c r="Z23" s="8"/>
+      <c r="AA23" s="8"/>
+      <c r="AB23" s="8"/>
+      <c r="AC23" s="8"/>
+      <c r="AD23" s="8"/>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
@@ -4990,21 +4990,21 @@
         <v>45</v>
       </c>
       <c r="C24" s="6">
-        <f>B24*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>2.7663218390804616</v>
       </c>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="U24" s="8"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="8"/>
+      <c r="X24" s="8"/>
+      <c r="Y24" s="8"/>
+      <c r="Z24" s="8"/>
+      <c r="AA24" s="8"/>
+      <c r="AB24" s="8"/>
+      <c r="AC24" s="8"/>
+      <c r="AD24" s="8"/>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
@@ -5014,21 +5014,21 @@
         <v>45</v>
       </c>
       <c r="C25" s="6">
-        <f>B25*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>2.7663218390804616</v>
       </c>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AB25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="U25" s="8"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="8"/>
+      <c r="X25" s="8"/>
+      <c r="Y25" s="8"/>
+      <c r="Z25" s="8"/>
+      <c r="AA25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="8"/>
+      <c r="AD25" s="8"/>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
@@ -5038,21 +5038,21 @@
         <v>51</v>
       </c>
       <c r="C26" s="6">
-        <f>B26*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
-      <c r="S26" s="7"/>
-      <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="7"/>
-      <c r="Y26" s="7"/>
-      <c r="Z26" s="7"/>
-      <c r="AA26" s="7"/>
-      <c r="AB26" s="7"/>
-      <c r="AC26" s="7"/>
-      <c r="AD26" s="7"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="8"/>
+      <c r="X26" s="8"/>
+      <c r="Y26" s="8"/>
+      <c r="Z26" s="8"/>
+      <c r="AA26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8"/>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
@@ -5062,21 +5062,21 @@
         <v>51</v>
       </c>
       <c r="C27" s="6">
-        <f>B27*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
-      <c r="X27" s="7"/>
-      <c r="Y27" s="7"/>
-      <c r="Z27" s="7"/>
-      <c r="AA27" s="7"/>
-      <c r="AB27" s="7"/>
-      <c r="AC27" s="7"/>
-      <c r="AD27" s="7"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="U27" s="8"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="8"/>
+      <c r="X27" s="8"/>
+      <c r="Y27" s="8"/>
+      <c r="Z27" s="8"/>
+      <c r="AA27" s="8"/>
+      <c r="AB27" s="8"/>
+      <c r="AC27" s="8"/>
+      <c r="AD27" s="8"/>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
@@ -5086,21 +5086,21 @@
         <v>51</v>
       </c>
       <c r="C28" s="6">
-        <f>B28*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
-      <c r="X28" s="7"/>
-      <c r="Y28" s="7"/>
-      <c r="Z28" s="7"/>
-      <c r="AA28" s="7"/>
-      <c r="AB28" s="7"/>
-      <c r="AC28" s="7"/>
-      <c r="AD28" s="7"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="U28" s="8"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="8"/>
+      <c r="X28" s="8"/>
+      <c r="Y28" s="8"/>
+      <c r="Z28" s="8"/>
+      <c r="AA28" s="8"/>
+      <c r="AB28" s="8"/>
+      <c r="AC28" s="8"/>
+      <c r="AD28" s="8"/>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
@@ -5110,21 +5110,21 @@
         <v>51</v>
       </c>
       <c r="C29" s="6">
-        <f>B29*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
-      <c r="S29" s="7"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
-      <c r="X29" s="7"/>
-      <c r="Y29" s="7"/>
-      <c r="Z29" s="7"/>
-      <c r="AA29" s="7"/>
-      <c r="AB29" s="7"/>
-      <c r="AC29" s="7"/>
-      <c r="AD29" s="7"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="U29" s="8"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="8"/>
+      <c r="X29" s="8"/>
+      <c r="Y29" s="8"/>
+      <c r="Z29" s="8"/>
+      <c r="AA29" s="8"/>
+      <c r="AB29" s="8"/>
+      <c r="AC29" s="8"/>
+      <c r="AD29" s="8"/>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
@@ -5134,21 +5134,21 @@
         <v>51</v>
       </c>
       <c r="C30" s="6">
-        <f>B30*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
-      <c r="AB30" s="7"/>
-      <c r="AC30" s="7"/>
-      <c r="AD30" s="7"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
+      <c r="AB30" s="8"/>
+      <c r="AC30" s="8"/>
+      <c r="AD30" s="8"/>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
@@ -5158,21 +5158,21 @@
         <v>51</v>
       </c>
       <c r="C31" s="6">
-        <f>B31*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="8"/>
+      <c r="X31" s="8"/>
+      <c r="Y31" s="8"/>
+      <c r="Z31" s="8"/>
+      <c r="AA31" s="8"/>
+      <c r="AB31" s="8"/>
+      <c r="AC31" s="8"/>
+      <c r="AD31" s="8"/>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
@@ -5182,21 +5182,21 @@
         <v>51</v>
       </c>
       <c r="C32" s="6">
-        <f>B32*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
-      <c r="X32" s="7"/>
-      <c r="Y32" s="7"/>
-      <c r="Z32" s="7"/>
-      <c r="AA32" s="7"/>
-      <c r="AB32" s="7"/>
-      <c r="AC32" s="7"/>
-      <c r="AD32" s="7"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="8"/>
+      <c r="X32" s="8"/>
+      <c r="Y32" s="8"/>
+      <c r="Z32" s="8"/>
+      <c r="AA32" s="8"/>
+      <c r="AB32" s="8"/>
+      <c r="AC32" s="8"/>
+      <c r="AD32" s="8"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
@@ -5206,7 +5206,7 @@
         <v>51</v>
       </c>
       <c r="C33" s="6">
-        <f>B33*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
     </row>
@@ -5218,7 +5218,7 @@
         <v>51</v>
       </c>
       <c r="C34" s="6">
-        <f>B34*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
     </row>
@@ -5230,7 +5230,7 @@
         <v>51</v>
       </c>
       <c r="C35" s="6">
-        <f>B35*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
     </row>
@@ -5242,7 +5242,7 @@
         <v>51</v>
       </c>
       <c r="C36" s="6">
-        <f>B36*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
     </row>
@@ -5254,7 +5254,7 @@
         <v>51</v>
       </c>
       <c r="C37" s="6">
-        <f>B37*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
     </row>
@@ -5266,7 +5266,7 @@
         <v>51</v>
       </c>
       <c r="C38" s="6">
-        <f>B38*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
     </row>
@@ -5278,7 +5278,7 @@
         <v>51</v>
       </c>
       <c r="C39" s="6">
-        <f>B39*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
     </row>
@@ -5290,7 +5290,7 @@
         <v>51</v>
       </c>
       <c r="C40" s="6">
-        <f>B40*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
     </row>
@@ -5302,7 +5302,7 @@
         <v>51</v>
       </c>
       <c r="C41" s="6">
-        <f>B41*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
     </row>
@@ -5314,7 +5314,7 @@
         <v>51</v>
       </c>
       <c r="C42" s="6">
-        <f>B42*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
     </row>
@@ -5326,7 +5326,7 @@
         <v>51</v>
       </c>
       <c r="C43" s="6">
-        <f>B43*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
     </row>
@@ -5338,7 +5338,7 @@
         <v>51</v>
       </c>
       <c r="C44" s="6">
-        <f>B44*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
     </row>
@@ -5350,7 +5350,7 @@
         <v>51</v>
       </c>
       <c r="C45" s="6">
-        <f>B45*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
     </row>
@@ -5362,7 +5362,7 @@
         <v>51</v>
       </c>
       <c r="C46" s="6">
-        <f>B46*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
     </row>
@@ -5374,7 +5374,7 @@
         <v>51</v>
       </c>
       <c r="C47" s="6">
-        <f>B47*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
     </row>
@@ -5386,7 +5386,7 @@
         <v>51</v>
       </c>
       <c r="C48" s="6">
-        <f>B48*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
     </row>
@@ -5398,7 +5398,7 @@
         <v>51</v>
       </c>
       <c r="C49" s="6">
-        <f>B49*$G$7+$G$8</f>
+        <f t="shared" si="0"/>
         <v>6.9008045977011534</v>
       </c>
     </row>
@@ -5729,7 +5729,7 @@
         <v>50</v>
       </c>
       <c r="C79" s="6">
-        <f>B79*$G$7+$G$8</f>
+        <f t="shared" ref="C79:C118" si="1">B79*$G$7+$G$8</f>
         <v>6.2117241379310357</v>
       </c>
     </row>
@@ -5741,7 +5741,7 @@
         <v>50</v>
       </c>
       <c r="C80" s="6">
-        <f>B80*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>6.2117241379310357</v>
       </c>
     </row>
@@ -5753,7 +5753,7 @@
         <v>50</v>
       </c>
       <c r="C81" s="6">
-        <f>B81*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>6.2117241379310357</v>
       </c>
     </row>
@@ -5765,7 +5765,7 @@
         <v>50</v>
       </c>
       <c r="C82" s="6">
-        <f>B82*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>6.2117241379310357</v>
       </c>
     </row>
@@ -5777,7 +5777,7 @@
         <v>50</v>
       </c>
       <c r="C83" s="6">
-        <f>B83*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>6.2117241379310357</v>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
         <v>45</v>
       </c>
       <c r="C84" s="6">
-        <f>B84*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>2.7663218390804616</v>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
         <v>45</v>
       </c>
       <c r="C85" s="6">
-        <f>B85*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>2.7663218390804616</v>
       </c>
     </row>
@@ -5813,7 +5813,7 @@
         <v>45</v>
       </c>
       <c r="C86" s="6">
-        <f>B86*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>2.7663218390804616</v>
       </c>
     </row>
@@ -5825,7 +5825,7 @@
         <v>45</v>
       </c>
       <c r="C87" s="6">
-        <f>B87*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>2.7663218390804616</v>
       </c>
     </row>
@@ -5837,7 +5837,7 @@
         <v>45</v>
       </c>
       <c r="C88" s="6">
-        <f>B88*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>2.7663218390804616</v>
       </c>
     </row>
@@ -5849,7 +5849,7 @@
         <v>45</v>
       </c>
       <c r="C89" s="6">
-        <f>B89*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>2.7663218390804616</v>
       </c>
     </row>
@@ -5861,7 +5861,7 @@
         <v>45</v>
       </c>
       <c r="C90" s="6">
-        <f>B90*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>2.7663218390804616</v>
       </c>
     </row>
@@ -5873,7 +5873,7 @@
         <v>45</v>
       </c>
       <c r="C91" s="6">
-        <f>B91*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>2.7663218390804616</v>
       </c>
     </row>
@@ -5885,7 +5885,7 @@
         <v>45</v>
       </c>
       <c r="C92" s="6">
-        <f>B92*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>2.7663218390804616</v>
       </c>
     </row>
@@ -5897,7 +5897,7 @@
         <v>45</v>
       </c>
       <c r="C93" s="6">
-        <f>B93*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>2.7663218390804616</v>
       </c>
     </row>
@@ -5909,7 +5909,7 @@
         <v>45</v>
       </c>
       <c r="C94" s="6">
-        <f>B94*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>2.7663218390804616</v>
       </c>
     </row>
@@ -5921,7 +5921,7 @@
         <v>45</v>
       </c>
       <c r="C95" s="6">
-        <f>B95*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>2.7663218390804616</v>
       </c>
     </row>
@@ -5933,7 +5933,7 @@
         <v>41</v>
       </c>
       <c r="C96" s="6">
-        <f>B96*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000001563E-2</v>
       </c>
     </row>
@@ -5945,7 +5945,7 @@
         <v>41</v>
       </c>
       <c r="C97" s="6">
-        <f>B97*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000001563E-2</v>
       </c>
     </row>
@@ -5957,7 +5957,7 @@
         <v>41</v>
       </c>
       <c r="C98" s="6">
-        <f>B98*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000001563E-2</v>
       </c>
     </row>
@@ -5969,7 +5969,7 @@
         <v>41</v>
       </c>
       <c r="C99" s="6">
-        <f>B99*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000001563E-2</v>
       </c>
     </row>
@@ -5981,7 +5981,7 @@
         <v>41</v>
       </c>
       <c r="C100" s="6">
-        <f>B100*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000001563E-2</v>
       </c>
     </row>
@@ -5993,7 +5993,7 @@
         <v>41</v>
       </c>
       <c r="C101" s="6">
-        <f>B101*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000001563E-2</v>
       </c>
     </row>
@@ -6005,7 +6005,7 @@
         <v>41</v>
       </c>
       <c r="C102" s="6">
-        <f>B102*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000001563E-2</v>
       </c>
     </row>
@@ -6017,7 +6017,7 @@
         <v>41</v>
       </c>
       <c r="C103" s="6">
-        <f>B103*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000001563E-2</v>
       </c>
     </row>
@@ -6029,7 +6029,7 @@
         <v>41</v>
       </c>
       <c r="C104" s="6">
-        <f>B104*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000001563E-2</v>
       </c>
     </row>
@@ -6041,7 +6041,7 @@
         <v>41</v>
       </c>
       <c r="C105" s="6">
-        <f>B105*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000001563E-2</v>
       </c>
     </row>
@@ -6053,7 +6053,7 @@
         <v>41</v>
       </c>
       <c r="C106" s="6">
-        <f>B106*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000001563E-2</v>
       </c>
     </row>
@@ -6065,7 +6065,7 @@
         <v>41</v>
       </c>
       <c r="C107" s="6">
-        <f>B107*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>1.0000000000001563E-2</v>
       </c>
     </row>
@@ -6077,7 +6077,7 @@
         <v>40</v>
       </c>
       <c r="C108" s="6">
-        <f>B108*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6089,7 +6089,7 @@
         <v>40</v>
       </c>
       <c r="C109" s="6">
-        <f>B109*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6101,7 +6101,7 @@
         <v>40</v>
       </c>
       <c r="C110" s="6">
-        <f>B110*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6113,7 +6113,7 @@
         <v>40</v>
       </c>
       <c r="C111" s="6">
-        <f>B111*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6125,7 +6125,7 @@
         <v>40</v>
       </c>
       <c r="C112" s="6">
-        <f>B112*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6137,7 +6137,7 @@
         <v>40</v>
       </c>
       <c r="C113" s="6">
-        <f>B113*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6149,7 +6149,7 @@
         <v>40</v>
       </c>
       <c r="C114" s="6">
-        <f>B114*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6161,7 +6161,7 @@
         <v>40</v>
       </c>
       <c r="C115" s="6">
-        <f>B115*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6173,7 +6173,7 @@
         <v>40</v>
       </c>
       <c r="C116" s="6">
-        <f>B116*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
         <v>40</v>
       </c>
       <c r="C117" s="6">
-        <f>B117*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6197,7 +6197,7 @@
         <v>40</v>
       </c>
       <c r="C118" s="6">
-        <f>B118*$G$7+$G$8</f>
+        <f t="shared" si="1"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6693,7 +6693,7 @@
         <v>40</v>
       </c>
       <c r="C163" s="6">
-        <f>B163*$G$7+$G$8</f>
+        <f t="shared" ref="C163:C194" si="2">B163*$G$7+$G$8</f>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6705,7 +6705,7 @@
         <v>40</v>
       </c>
       <c r="C164" s="6">
-        <f>B164*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6717,7 +6717,7 @@
         <v>40</v>
       </c>
       <c r="C165" s="6">
-        <f>B165*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6729,7 +6729,7 @@
         <v>40</v>
       </c>
       <c r="C166" s="6">
-        <f>B166*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6741,7 +6741,7 @@
         <v>40</v>
       </c>
       <c r="C167" s="6">
-        <f>B167*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6753,7 +6753,7 @@
         <v>40</v>
       </c>
       <c r="C168" s="6">
-        <f>B168*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6765,7 +6765,7 @@
         <v>40</v>
       </c>
       <c r="C169" s="6">
-        <f>B169*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6777,7 +6777,7 @@
         <v>40</v>
       </c>
       <c r="C170" s="6">
-        <f>B170*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6789,7 +6789,7 @@
         <v>40</v>
       </c>
       <c r="C171" s="6">
-        <f>B171*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6801,7 +6801,7 @@
         <v>40</v>
       </c>
       <c r="C172" s="6">
-        <f>B172*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6813,7 +6813,7 @@
         <v>40</v>
       </c>
       <c r="C173" s="6">
-        <f>B173*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6825,7 +6825,7 @@
         <v>40</v>
       </c>
       <c r="C174" s="6">
-        <f>B174*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6837,7 +6837,7 @@
         <v>40</v>
       </c>
       <c r="C175" s="6">
-        <f>B175*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6849,7 +6849,7 @@
         <v>40</v>
       </c>
       <c r="C176" s="6">
-        <f>B176*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6861,7 +6861,7 @@
         <v>40</v>
       </c>
       <c r="C177" s="6">
-        <f>B177*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6873,7 +6873,7 @@
         <v>40</v>
       </c>
       <c r="C178" s="6">
-        <f>B178*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>-0.67908045977011255</v>
       </c>
     </row>
@@ -6885,7 +6885,7 @@
         <v>42</v>
       </c>
       <c r="C179" s="6">
-        <f>B179*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>0.69908045977011568</v>
       </c>
     </row>
@@ -6897,7 +6897,7 @@
         <v>42</v>
       </c>
       <c r="C180" s="6">
-        <f>B180*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>0.69908045977011568</v>
       </c>
     </row>
@@ -6909,7 +6909,7 @@
         <v>42</v>
       </c>
       <c r="C181" s="6">
-        <f>B181*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>0.69908045977011568</v>
       </c>
     </row>
@@ -6921,7 +6921,7 @@
         <v>42</v>
       </c>
       <c r="C182" s="6">
-        <f>B182*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>0.69908045977011568</v>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
         <v>42</v>
       </c>
       <c r="C183" s="6">
-        <f>B183*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>0.69908045977011568</v>
       </c>
     </row>
@@ -6945,7 +6945,7 @@
         <v>42</v>
       </c>
       <c r="C184" s="6">
-        <f>B184*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>0.69908045977011568</v>
       </c>
     </row>
@@ -6957,7 +6957,7 @@
         <v>42</v>
       </c>
       <c r="C185" s="6">
-        <f>B185*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>0.69908045977011568</v>
       </c>
     </row>
@@ -6969,7 +6969,7 @@
         <v>42</v>
       </c>
       <c r="C186" s="6">
-        <f>B186*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>0.69908045977011568</v>
       </c>
     </row>
@@ -6981,7 +6981,7 @@
         <v>42</v>
       </c>
       <c r="C187" s="6">
-        <f>B187*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>0.69908045977011568</v>
       </c>
     </row>
@@ -6993,7 +6993,7 @@
         <v>42</v>
       </c>
       <c r="C188" s="6">
-        <f>B188*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>0.69908045977011568</v>
       </c>
     </row>
@@ -7005,7 +7005,7 @@
         <v>42</v>
       </c>
       <c r="C189" s="6">
-        <f>B189*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>0.69908045977011568</v>
       </c>
     </row>
@@ -7017,7 +7017,7 @@
         <v>42</v>
       </c>
       <c r="C190" s="6">
-        <f>B190*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>0.69908045977011568</v>
       </c>
     </row>
@@ -7029,7 +7029,7 @@
         <v>42</v>
       </c>
       <c r="C191" s="6">
-        <f>B191*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>0.69908045977011568</v>
       </c>
     </row>
@@ -7041,7 +7041,7 @@
         <v>42</v>
       </c>
       <c r="C192" s="6">
-        <f>B192*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>0.69908045977011568</v>
       </c>
     </row>
@@ -7053,7 +7053,7 @@
         <v>42</v>
       </c>
       <c r="C193" s="6">
-        <f>B193*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>0.69908045977011568</v>
       </c>
     </row>
@@ -7065,7 +7065,7 @@
         <v>42</v>
       </c>
       <c r="C194" s="6">
-        <f>B194*$G$7+$G$8</f>
+        <f t="shared" si="2"/>
         <v>0.69908045977011568</v>
       </c>
     </row>
@@ -7075,6 +7075,7 @@
     <mergeCell ref="S17:AD32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>